--- a/Cron/ncaamb/model_predictions.xlsx
+++ b/Cron/ncaamb/model_predictions.xlsx
@@ -909,13 +909,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>0.7684</v>
+        <v>0.5563</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>0.2316</v>
+        <v>0.4437</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -929,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>0.7729</v>
+        <v>0.5485</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2">
-        <v>0.2271</v>
+        <v>0.4515</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -949,13 +949,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>0.7729</v>
+        <v>0.5569</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>0.2271</v>
+        <v>0.4431</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -969,13 +969,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>0.7684</v>
+        <v>0.5563</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>0.2316</v>
+        <v>0.4437</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -989,13 +989,13 @@
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>0.7684</v>
+        <v>0.5607</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2">
-        <v>0.2316</v>
+        <v>0.4393</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1009,13 +1009,13 @@
         <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>0.7431</v>
+        <v>0.5386</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>0.2569</v>
+        <v>0.4614</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1029,13 +1029,13 @@
         <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>0.7729</v>
+        <v>0.5569</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="2">
-        <v>0.2271</v>
+        <v>0.4431</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1049,13 +1049,13 @@
         <v>29</v>
       </c>
       <c r="D9" s="2">
-        <v>0.7684</v>
+        <v>0.5523</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>0.2316</v>
+        <v>0.4477</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1069,13 +1069,13 @@
         <v>32</v>
       </c>
       <c r="D10" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1089,13 +1089,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="2">
-        <v>0.7693</v>
+        <v>0.5627</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="2">
-        <v>0.2307</v>
+        <v>0.4373</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1109,13 +1109,13 @@
         <v>38</v>
       </c>
       <c r="D12" s="2">
-        <v>0.7479</v>
+        <v>0.5316</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="2">
-        <v>0.2521</v>
+        <v>0.4684</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1129,13 +1129,13 @@
         <v>41</v>
       </c>
       <c r="D13" s="2">
-        <v>0.4794</v>
+        <v>0.4646</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="2">
-        <v>0.5206</v>
+        <v>0.5354</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1149,13 +1149,13 @@
         <v>44</v>
       </c>
       <c r="D14" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1169,13 +1169,13 @@
         <v>47</v>
       </c>
       <c r="D15" s="2">
-        <v>0.7684</v>
+        <v>0.5607</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="2">
-        <v>0.2316</v>
+        <v>0.4393</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1189,13 +1189,13 @@
         <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1209,13 +1209,13 @@
         <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>0.7684</v>
+        <v>0.5563</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="2">
-        <v>0.2316</v>
+        <v>0.4437</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1229,13 +1229,13 @@
         <v>56</v>
       </c>
       <c r="D18" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1249,13 +1249,13 @@
         <v>59</v>
       </c>
       <c r="D19" s="2">
-        <v>0.7729</v>
+        <v>0.5569</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="2">
-        <v>0.2271</v>
+        <v>0.4431</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1269,13 +1269,13 @@
         <v>62</v>
       </c>
       <c r="D20" s="2">
-        <v>0.7684</v>
+        <v>0.5478</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="2">
-        <v>0.2316</v>
+        <v>0.4522</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1289,13 +1289,13 @@
         <v>65</v>
       </c>
       <c r="D21" s="2">
-        <v>0.7431</v>
+        <v>0.5386</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F21" s="2">
-        <v>0.2569</v>
+        <v>0.4614</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1309,13 +1309,13 @@
         <v>68</v>
       </c>
       <c r="D22" s="2">
-        <v>0.4794</v>
+        <v>0.4646</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="2">
-        <v>0.5206</v>
+        <v>0.5354</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1329,13 +1329,13 @@
         <v>71</v>
       </c>
       <c r="D23" s="2">
-        <v>0.7431</v>
+        <v>0.5386</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="2">
-        <v>0.2569</v>
+        <v>0.4614</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1349,13 +1349,13 @@
         <v>74</v>
       </c>
       <c r="D24" s="2">
-        <v>0.7729</v>
+        <v>0.5569</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F24" s="2">
-        <v>0.2271</v>
+        <v>0.4431</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1369,13 +1369,13 @@
         <v>77</v>
       </c>
       <c r="D25" s="2">
-        <v>0.4794</v>
+        <v>0.4646</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F25" s="2">
-        <v>0.5206</v>
+        <v>0.5354</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1389,13 +1389,13 @@
         <v>80</v>
       </c>
       <c r="D26" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1409,13 +1409,13 @@
         <v>83</v>
       </c>
       <c r="D27" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1429,13 +1429,13 @@
         <v>86</v>
       </c>
       <c r="D28" s="2">
-        <v>0.7684</v>
+        <v>0.5607</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F28" s="2">
-        <v>0.2316</v>
+        <v>0.4393</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1449,13 +1449,13 @@
         <v>89</v>
       </c>
       <c r="D29" s="2">
-        <v>0.5576</v>
+        <v>0.5536</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="2">
-        <v>0.4424</v>
+        <v>0.4464</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1469,13 +1469,13 @@
         <v>92</v>
       </c>
       <c r="D30" s="2">
-        <v>0.7729</v>
+        <v>0.5613</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F30" s="2">
-        <v>0.2271</v>
+        <v>0.4387</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1489,13 +1489,13 @@
         <v>95</v>
       </c>
       <c r="D31" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F31" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1509,13 +1509,13 @@
         <v>98</v>
       </c>
       <c r="D32" s="2">
-        <v>0.7684</v>
+        <v>0.5607</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F32" s="2">
-        <v>0.2316</v>
+        <v>0.4393</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1529,13 +1529,13 @@
         <v>101</v>
       </c>
       <c r="D33" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F33" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1549,13 +1549,13 @@
         <v>104</v>
       </c>
       <c r="D34" s="2">
-        <v>0.5095</v>
+        <v>0.4646</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F34" s="2">
-        <v>0.4905</v>
+        <v>0.5354</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1569,13 +1569,13 @@
         <v>107</v>
       </c>
       <c r="D35" s="2">
-        <v>0.7431</v>
+        <v>0.5386</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F35" s="2">
-        <v>0.2569</v>
+        <v>0.4614</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1589,13 +1589,13 @@
         <v>110</v>
       </c>
       <c r="D36" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F36" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1609,13 +1609,13 @@
         <v>113</v>
       </c>
       <c r="D37" s="2">
-        <v>0.7479</v>
+        <v>0.5316</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F37" s="2">
-        <v>0.2521</v>
+        <v>0.4684</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1629,13 +1629,13 @@
         <v>116</v>
       </c>
       <c r="D38" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F38" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1649,13 +1649,13 @@
         <v>119</v>
       </c>
       <c r="D39" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F39" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1669,13 +1669,13 @@
         <v>122</v>
       </c>
       <c r="D40" s="2">
-        <v>0.7431</v>
+        <v>0.5386</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F40" s="2">
-        <v>0.2569</v>
+        <v>0.4614</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1689,13 +1689,13 @@
         <v>125</v>
       </c>
       <c r="D41" s="2">
-        <v>0.7479</v>
+        <v>0.5345</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F41" s="2">
-        <v>0.2521</v>
+        <v>0.4655</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1709,13 +1709,13 @@
         <v>128</v>
       </c>
       <c r="D42" s="2">
-        <v>0.7431</v>
+        <v>0.5386</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F42" s="2">
-        <v>0.2569</v>
+        <v>0.4614</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1729,13 +1729,13 @@
         <v>131</v>
       </c>
       <c r="D43" s="2">
-        <v>0.7431</v>
+        <v>0.5386</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F43" s="2">
-        <v>0.2569</v>
+        <v>0.4614</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1749,13 +1749,13 @@
         <v>134</v>
       </c>
       <c r="D44" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F44" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1769,13 +1769,13 @@
         <v>137</v>
       </c>
       <c r="D45" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F45" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1789,13 +1789,13 @@
         <v>140</v>
       </c>
       <c r="D46" s="2">
-        <v>0.7684</v>
+        <v>0.5478</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F46" s="2">
-        <v>0.2316</v>
+        <v>0.4522</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1809,13 +1809,13 @@
         <v>143</v>
       </c>
       <c r="D47" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F47" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1829,13 +1829,13 @@
         <v>146</v>
       </c>
       <c r="D48" s="2">
-        <v>0.7479</v>
+        <v>0.5316</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F48" s="2">
-        <v>0.2521</v>
+        <v>0.4684</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1849,13 +1849,13 @@
         <v>149</v>
       </c>
       <c r="D49" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F49" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1869,13 +1869,13 @@
         <v>152</v>
       </c>
       <c r="D50" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F50" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1889,13 +1889,13 @@
         <v>155</v>
       </c>
       <c r="D51" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F51" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1909,13 +1909,13 @@
         <v>158</v>
       </c>
       <c r="D52" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F52" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1929,13 +1929,13 @@
         <v>161</v>
       </c>
       <c r="D53" s="2">
-        <v>0.7431</v>
+        <v>0.5386</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F53" s="2">
-        <v>0.2569</v>
+        <v>0.4614</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1949,13 +1949,13 @@
         <v>164</v>
       </c>
       <c r="D54" s="2">
-        <v>0.7479</v>
+        <v>0.5401</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F54" s="2">
-        <v>0.2521</v>
+        <v>0.4599</v>
       </c>
     </row>
   </sheetData>
